--- a/parameter_template/template1.xlsx
+++ b/parameter_template/template1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arpitha.ng\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFDB04F4-3E75-4B33-8B03-4ACFCDE7BD76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21EC3E2E-A4FB-4950-80AF-F459924A1FFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pre requisite &amp; readme" sheetId="7" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="65">
   <si>
     <t>mandatory</t>
   </si>
@@ -117,9 +117,6 @@
     <t>Input Required</t>
   </si>
   <si>
-    <t>dummy tag</t>
-  </si>
-  <si>
     <t>Raw</t>
   </si>
   <si>
@@ -238,6 +235,9 @@
   </si>
   <si>
     <t>test1</t>
+  </si>
+  <si>
+    <t>Volume</t>
   </si>
 </sst>
 </file>
@@ -781,7 +781,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -831,8 +831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -909,67 +909,88 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:13" customFormat="1">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>25</v>
+      <c r="D3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="K5" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L5" s="2">
         <v>100</v>
@@ -1029,37 +1050,37 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1071,8 +1092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43FBDFD0-D241-493E-8C58-3A6E775FD89F}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1084,7 +1105,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>12</v>
@@ -1095,24 +1116,24 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1136,7 +1157,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>12</v>
@@ -1163,13 +1184,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="10" t="s">
         <v>44</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1194,7 +1215,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>14</v>
@@ -1205,60 +1226,60 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
         <v>47</v>
-      </c>
-      <c r="B2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
         <v>49</v>
       </c>
-      <c r="B3" t="s">
-        <v>50</v>
-      </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" t="s">
         <v>52</v>
-      </c>
-      <c r="B5" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/parameter_template/template1.xlsx
+++ b/parameter_template/template1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arpitha.ng\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21EC3E2E-A4FB-4950-80AF-F459924A1FFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{470AB22E-8DC3-4C52-9677-DB56674435C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pre requisite &amp; readme" sheetId="7" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="63">
   <si>
     <t>mandatory</t>
   </si>
@@ -120,9 +120,6 @@
     <t>Raw</t>
   </si>
   <si>
-    <t xml:space="preserve">Param2 </t>
-  </si>
-  <si>
     <t>tag2</t>
   </si>
   <si>
@@ -135,9 +132,6 @@
     <t>Numeric Entry</t>
   </si>
   <si>
-    <t>Param3</t>
-  </si>
-  <si>
     <t>tag3</t>
   </si>
   <si>
@@ -216,15 +210,6 @@
     <t>test_12</t>
   </si>
   <si>
-    <t>testing1</t>
-  </si>
-  <si>
-    <t>testing3</t>
-  </si>
-  <si>
-    <t>test12345</t>
-  </si>
-  <si>
     <t>test</t>
   </si>
   <si>
@@ -238,6 +223,15 @@
   </si>
   <si>
     <t>Volume</t>
+  </si>
+  <si>
+    <t>Test_30092024</t>
+  </si>
+  <si>
+    <t>Test_30092024-1</t>
+  </si>
+  <si>
+    <t>Test_30092024-2</t>
   </si>
 </sst>
 </file>
@@ -359,7 +353,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -405,6 +399,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -742,7 +737,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -781,7 +776,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -831,8 +826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -911,86 +906,92 @@
     </row>
     <row r="3" spans="1:13" customFormat="1">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s">
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="I3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K3" t="s">
-        <v>37</v>
+        <v>35</v>
+      </c>
+      <c r="L3" t="b">
+        <v>0</v>
+      </c>
+      <c r="M3" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="C4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="D5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="K5" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L5" s="2">
         <v>100</v>
@@ -1036,10 +1037,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{376C239A-F4FF-4619-935C-2895ED995B80}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1050,37 +1051,29 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1093,7 +1086,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1105,7 +1098,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>12</v>
@@ -1116,24 +1109,24 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1143,10 +1136,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF632EF9-E4E1-4719-B604-138E14611EE4}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1157,10 +1150,26 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1170,27 +1179,50 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{583F3CA8-B949-4729-8E2E-09A477D4B954}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
+    <col min="1" max="1" width="21.81640625" customWidth="1"/>
     <col min="2" max="2" width="16.81640625" customWidth="1"/>
     <col min="3" max="3" width="28.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>44</v>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1202,8 +1234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CABC6542-F899-4380-93BC-738C402BE5C3}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1215,7 +1247,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>14</v>
@@ -1226,55 +1258,55 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:3">
